--- a/realme/Others/RSC Information All/Shop RSC List Rajshahi division Update.xlsx
+++ b/realme/Others/RSC Information All/Shop RSC List Rajshahi division Update.xlsx
@@ -202,7 +202,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -388,10 +388,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,7 +404,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -421,6 +418,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,16 +720,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="22" customFormat="1" ht="28.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1">
@@ -762,13 +762,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="29">
         <v>1735959436</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -777,27 +777,27 @@
       <c r="E3" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <v>44228</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>1917426342</v>
       </c>
       <c r="D4" s="23" t="s">
@@ -806,27 +806,27 @@
       <c r="E4" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>44228</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="29">
         <v>1788128128</v>
       </c>
       <c r="D5" s="23" t="s">
@@ -835,27 +835,27 @@
       <c r="E5" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="31">
         <v>44228</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>1733433999</v>
       </c>
       <c r="D6" s="23" t="s">
@@ -864,27 +864,27 @@
       <c r="E6" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <v>44362</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>1724950996</v>
       </c>
       <c r="D7" s="23" t="s">
@@ -893,27 +893,27 @@
       <c r="E7" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="31">
         <v>44362</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="29">
         <v>1788914019</v>
       </c>
       <c r="D8" s="23" t="s">
@@ -922,27 +922,27 @@
       <c r="E8" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>44428</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>1705424725</v>
       </c>
       <c r="D9" s="23" t="s">
@@ -951,27 +951,27 @@
       <c r="E9" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="31">
         <v>44428</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="29">
         <v>1737495544</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -980,27 +980,27 @@
       <c r="E10" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="31">
         <v>44428</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="29">
         <v>1858889777</v>
       </c>
       <c r="D11" s="23" t="s">
@@ -1009,27 +1009,27 @@
       <c r="E11" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="31">
         <v>44202</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>1711427916</v>
       </c>
       <c r="D12" s="23" t="s">
@@ -1038,40 +1038,40 @@
       <c r="E12" s="23">
         <v>1725899584</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <v>44202</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A13" s="28"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="37"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" s="22" customFormat="1" ht="15.75">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="37"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" s="22" customFormat="1">
       <c r="A15" s="7"/>
@@ -1079,9 +1079,9 @@
       <c r="C15" s="14"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" s="22" customFormat="1">
@@ -1092,7 +1092,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="15"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="26"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="22" customFormat="1">
@@ -1103,7 +1103,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="15"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="26"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" s="22" customFormat="1">
@@ -1114,7 +1114,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="15"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="26"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" s="22" customFormat="1">

--- a/realme/Others/RSC Information All/Shop RSC List Rajshahi division Update.xlsx
+++ b/realme/Others/RSC Information All/Shop RSC List Rajshahi division Update.xlsx
@@ -704,18 +704,18 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" customWidth="1"/>
-    <col min="8" max="8" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
